--- a/NformTester/NformTester/keywordscripts/TST964_DeleteDevice.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST964_DeleteDevice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
+    <workbookView xWindow="270" yWindow="2535" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -3697,9 +3697,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.85.10</t>
-  </si>
-  <si>
     <t>Configure</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3843,15 +3840,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.85.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Del_Device</t>
   </si>
   <si>
     <t>"AllDel"</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GXT_2</t>
+  </si>
+  <si>
+    <t>$GXT_5$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4785,7 +4785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4927,7 +4929,7 @@
         <v>814</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>815</v>
+        <v>854</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -4953,7 +4955,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>2</v>
@@ -4984,7 +4986,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>2</v>
@@ -5047,10 +5049,10 @@
         <v>573</v>
       </c>
       <c r="G8" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>818</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>819</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -5071,7 +5073,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>802</v>
@@ -5154,7 +5156,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>802</v>
@@ -5210,7 +5212,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -5233,7 +5235,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>19</v>
@@ -5262,7 +5264,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>19</v>
@@ -5291,7 +5293,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>797</v>
@@ -5320,7 +5322,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>799</v>
@@ -5351,7 +5353,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>799</v>
@@ -5380,7 +5382,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>799</v>
@@ -5409,7 +5411,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>799</v>
@@ -5434,7 +5436,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>799</v>
@@ -5459,13 +5461,13 @@
         <v>22</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>799</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>2</v>
@@ -5484,13 +5486,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>799</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>2</v>
@@ -5509,19 +5511,19 @@
         <v>24</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>799</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -5536,13 +5538,13 @@
         <v>25</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>799</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>2</v>
@@ -5561,19 +5563,19 @@
         <v>26</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>799</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -5588,7 +5590,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>799</v>
@@ -5613,7 +5615,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>802</v>
@@ -5711,7 +5713,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>802</v>
@@ -5840,7 +5842,7 @@
         <v>797</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>2</v>
@@ -5865,7 +5867,7 @@
         <v>797</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>809</v>
@@ -5909,7 +5911,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>802</v>
@@ -5966,10 +5968,10 @@
         <v>573</v>
       </c>
       <c r="G43" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="H43" s="14" t="s">
         <v>818</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>819</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -5984,7 +5986,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>802</v>
@@ -6013,7 +6015,7 @@
         <v>797</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>809</v>
@@ -6057,7 +6059,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>802</v>
@@ -6205,7 +6207,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>802</v>
@@ -6240,7 +6242,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -6305,7 +6307,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>802</v>
@@ -6340,7 +6342,7 @@
         <v>807</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -6367,7 +6369,7 @@
         <v>807</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -6394,7 +6396,7 @@
         <v>13</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -6461,7 +6463,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E63" s="14" t="s">
         <v>802</v>
@@ -6590,7 +6592,7 @@
         <v>797</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>2</v>
@@ -6615,7 +6617,7 @@
         <v>797</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G69" s="14" t="s">
         <v>809</v>
@@ -6637,7 +6639,7 @@
         <v>792</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>250</v>
@@ -6646,7 +6648,7 @@
         <v>807</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -6664,7 +6666,7 @@
         <v>792</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F71" s="14" t="s">
         <v>249</v>
@@ -6673,7 +6675,7 @@
         <v>807</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -6691,7 +6693,7 @@
         <v>792</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>801</v>
@@ -6700,7 +6702,7 @@
         <v>807</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -6718,7 +6720,7 @@
         <v>792</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>805</v>
@@ -6746,7 +6748,7 @@
         <v>797</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>2</v>
@@ -6771,7 +6773,7 @@
         <v>797</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>809</v>
@@ -6793,7 +6795,7 @@
         <v>792</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>250</v>
@@ -6802,7 +6804,7 @@
         <v>807</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -6820,7 +6822,7 @@
         <v>792</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F77" s="14" t="s">
         <v>249</v>
@@ -6829,7 +6831,7 @@
         <v>807</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -6847,7 +6849,7 @@
         <v>792</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F78" s="14" t="s">
         <v>801</v>
@@ -6856,7 +6858,7 @@
         <v>807</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -6874,7 +6876,7 @@
         <v>792</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F79" s="14" t="s">
         <v>805</v>
@@ -6902,7 +6904,7 @@
         <v>797</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>2</v>
@@ -6927,7 +6929,7 @@
         <v>797</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>809</v>
@@ -6949,7 +6951,7 @@
         <v>792</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F82" s="14" t="s">
         <v>250</v>
@@ -6958,7 +6960,7 @@
         <v>807</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -6976,7 +6978,7 @@
         <v>792</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F83" s="14" t="s">
         <v>249</v>
@@ -6985,7 +6987,7 @@
         <v>807</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -7003,7 +7005,7 @@
         <v>792</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F84" s="14" t="s">
         <v>801</v>
@@ -7012,7 +7014,7 @@
         <v>807</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
@@ -7030,7 +7032,7 @@
         <v>792</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F85" s="14" t="s">
         <v>805</v>
@@ -7058,7 +7060,7 @@
         <v>797</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G86" s="14" t="s">
         <v>2</v>
@@ -7083,7 +7085,7 @@
         <v>797</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G87" s="14" t="s">
         <v>809</v>
@@ -7105,7 +7107,7 @@
         <v>792</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F88" s="14" t="s">
         <v>250</v>
@@ -7114,7 +7116,7 @@
         <v>807</v>
       </c>
       <c r="H88" s="14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
@@ -7132,7 +7134,7 @@
         <v>792</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F89" s="14" t="s">
         <v>249</v>
@@ -7141,7 +7143,7 @@
         <v>807</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -7159,7 +7161,7 @@
         <v>792</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F90" s="14" t="s">
         <v>801</v>
@@ -7168,7 +7170,7 @@
         <v>807</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -7186,7 +7188,7 @@
         <v>792</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F91" s="14" t="s">
         <v>805</v>
@@ -7345,7 +7347,7 @@
         <v>4</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
@@ -7410,7 +7412,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E100" s="14" t="s">
         <v>802</v>
@@ -7445,7 +7447,7 @@
         <v>807</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
@@ -7472,7 +7474,7 @@
         <v>807</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
@@ -7499,7 +7501,7 @@
         <v>13</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -7566,7 +7568,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E106" s="14" t="s">
         <v>802</v>
@@ -7639,7 +7641,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>813</v>
@@ -7652,7 +7654,7 @@
         <v>814</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
@@ -7672,11 +7674,11 @@
         <v>572</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>

--- a/NformTester/NformTester/keywordscripts/TST964_DeleteDevice.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST964_DeleteDevice.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7495" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7493" uniqueCount="855">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3728,10 +3728,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"126.4.100.50{TAB}100"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>;T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3740,10 +3736,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"126.4.100.100"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CellName_Row_0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3852,6 +3844,14 @@
   <si>
     <t>$GXT_5$</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"126.4.100.50{TAB}80"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"126.4.100.80"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4783,10 +4783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4794,7 +4794,7 @@
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="24.125" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
     <col min="8" max="8" width="17.875" customWidth="1"/>
     <col min="9" max="9" width="16.875" customWidth="1"/>
@@ -4929,7 +4929,7 @@
         <v>814</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -5005,7 +5005,7 @@
         <v>760</v>
       </c>
       <c r="B7" s="3">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -5162,7 +5162,7 @@
         <v>802</v>
       </c>
       <c r="F12" s="14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -5523,7 +5523,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>823</v>
+        <v>853</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -5538,13 +5538,13 @@
         <v>25</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>799</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>2</v>
@@ -5563,19 +5563,19 @@
         <v>26</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>799</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>826</v>
+        <v>854</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -5694,7 +5694,7 @@
         <v>799</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>800</v>
+        <v>596</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>809</v>
@@ -5713,15 +5713,17 @@
         <v>32</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F33" s="14">
-        <v>10</v>
-      </c>
-      <c r="G33" s="14"/>
+        <v>804</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -5739,10 +5741,10 @@
         <v>792</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>2</v>
@@ -5763,16 +5765,16 @@
       <c r="D35" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>806</v>
+      <c r="E35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="4"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -5792,7 +5794,7 @@
         <v>19</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>2</v>
@@ -5813,11 +5815,11 @@
       <c r="D37" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>74</v>
+      <c r="E37" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>825</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>2</v>
@@ -5842,10 +5844,10 @@
         <v>797</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="4"/>
@@ -5864,10 +5866,10 @@
         <v>792</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>809</v>
@@ -5886,17 +5888,15 @@
         <v>39</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>810</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>811</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>809</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F40" s="14">
+        <v>5</v>
+      </c>
+      <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -5911,15 +5911,17 @@
         <v>40</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F41" s="14">
-        <v>10</v>
-      </c>
-      <c r="G41" s="14"/>
+        <v>797</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>809</v>
+      </c>
       <c r="H41" s="14"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -5943,9 +5945,11 @@
         <v>573</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="H42" s="14"/>
+        <v>817</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>818</v>
+      </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -5959,20 +5963,16 @@
         <v>42</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>817</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>818</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F43" s="14">
+        <v>5</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -5986,15 +5986,17 @@
         <v>43</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F44" s="14">
-        <v>5</v>
-      </c>
-      <c r="G44" s="14"/>
+        <v>797</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>809</v>
+      </c>
       <c r="H44" s="14"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -6012,10 +6014,10 @@
         <v>792</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>809</v>
@@ -6034,17 +6036,15 @@
         <v>45</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>810</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>811</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>809</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F46" s="14">
+        <v>2</v>
+      </c>
+      <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -6059,15 +6059,17 @@
         <v>46</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F47" s="14">
-        <v>10</v>
-      </c>
-      <c r="G47" s="14"/>
+        <v>797</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>809</v>
+      </c>
       <c r="H47" s="14"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -6084,14 +6086,14 @@
       <c r="D48" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>806</v>
+      <c r="E48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>809</v>
+        <v>2</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="4"/>
@@ -6113,7 +6115,7 @@
         <v>19</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>2</v>
@@ -6134,11 +6136,11 @@
       <c r="D50" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>74</v>
+      <c r="E50" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>798</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>2</v>
@@ -6160,10 +6162,10 @@
         <v>792</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>2</v>
@@ -6182,17 +6184,15 @@
         <v>51</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>799</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>800</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>2</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F52" s="14">
+        <v>7</v>
+      </c>
+      <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -6207,16 +6207,20 @@
         <v>52</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F53" s="14">
-        <v>7</v>
-      </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
+        <v>799</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>827</v>
+      </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -6236,14 +6240,12 @@
         <v>799</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>801</v>
+        <v>600</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>829</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="H54" s="14"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -6263,10 +6265,10 @@
         <v>799</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="H55" s="14"/>
       <c r="I55" s="4"/>
@@ -6282,17 +6284,15 @@
         <v>55</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>799</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>800</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>2</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F56" s="14">
+        <v>3</v>
+      </c>
+      <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -6307,16 +6307,20 @@
         <v>56</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F57" s="14">
-        <v>3</v>
-      </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
+        <v>799</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>828</v>
+      </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -6336,13 +6340,13 @@
         <v>799</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -6363,13 +6367,13 @@
         <v>799</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>249</v>
+        <v>515</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>807</v>
+        <v>13</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -6390,13 +6394,13 @@
         <v>799</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>515</v>
+        <v>601</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>832</v>
+        <v>808</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -6417,14 +6421,12 @@
         <v>799</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>601</v>
+        <v>803</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>808</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H61" s="14"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -6438,17 +6440,15 @@
         <v>61</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>799</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>803</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>2</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F62" s="14">
+        <v>3</v>
+      </c>
+      <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -6463,15 +6463,17 @@
         <v>62</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F63" s="14">
-        <v>3</v>
-      </c>
-      <c r="G63" s="14"/>
+        <v>804</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="H63" s="14"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -6489,10 +6491,10 @@
         <v>792</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G64" s="14" t="s">
         <v>2</v>
@@ -6513,11 +6515,11 @@
       <c r="D65" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="E65" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>806</v>
+      <c r="E65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>2</v>
@@ -6542,7 +6544,7 @@
         <v>19</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>2</v>
@@ -6563,11 +6565,11 @@
       <c r="D67" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>74</v>
+      <c r="E67" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>825</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>2</v>
@@ -6592,10 +6594,10 @@
         <v>797</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="H68" s="14"/>
       <c r="I68" s="4"/>
@@ -6614,15 +6616,17 @@
         <v>792</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>797</v>
+        <v>832</v>
       </c>
       <c r="F69" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="H69" s="14" t="s">
         <v>833</v>
       </c>
-      <c r="G69" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="H69" s="14"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -6639,16 +6643,16 @@
         <v>792</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G70" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -6666,16 +6670,16 @@
         <v>792</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>249</v>
+        <v>801</v>
       </c>
       <c r="G71" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -6693,17 +6697,15 @@
         <v>792</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="H72" s="14" t="s">
-        <v>837</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="H72" s="14"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -6720,13 +6722,13 @@
         <v>792</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>834</v>
+        <v>797</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>809</v>
+        <v>2</v>
       </c>
       <c r="H73" s="14"/>
       <c r="I73" s="4"/>
@@ -6748,10 +6750,10 @@
         <v>797</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="H74" s="14"/>
       <c r="I74" s="4"/>
@@ -6770,15 +6772,17 @@
         <v>792</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>797</v>
+        <v>832</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>833</v>
+        <v>250</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="H75" s="14"/>
+        <v>807</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>836</v>
+      </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -6795,16 +6799,16 @@
         <v>792</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -6822,16 +6826,16 @@
         <v>792</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>249</v>
+        <v>801</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -6849,17 +6853,15 @@
         <v>792</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="H78" s="14" t="s">
-        <v>840</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="H78" s="14"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -6876,13 +6878,13 @@
         <v>792</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>834</v>
+        <v>797</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>809</v>
+        <v>2</v>
       </c>
       <c r="H79" s="14"/>
       <c r="I79" s="4"/>
@@ -6904,10 +6906,10 @@
         <v>797</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="H80" s="14"/>
       <c r="I80" s="4"/>
@@ -6926,15 +6928,17 @@
         <v>792</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>797</v>
+        <v>832</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>833</v>
+        <v>250</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="H81" s="14"/>
+        <v>807</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>839</v>
+      </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -6951,16 +6955,16 @@
         <v>792</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G82" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -6978,16 +6982,16 @@
         <v>792</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>249</v>
+        <v>801</v>
       </c>
       <c r="G83" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -7005,17 +7009,15 @@
         <v>792</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>843</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="H84" s="14"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -7032,13 +7034,13 @@
         <v>792</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>834</v>
+        <v>797</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>809</v>
+        <v>2</v>
       </c>
       <c r="H85" s="14"/>
       <c r="I85" s="4"/>
@@ -7060,10 +7062,10 @@
         <v>797</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="H86" s="14"/>
       <c r="I86" s="4"/>
@@ -7082,15 +7084,17 @@
         <v>792</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>797</v>
+        <v>832</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>833</v>
+        <v>250</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="H87" s="14"/>
+        <v>807</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>842</v>
+      </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -7107,16 +7111,16 @@
         <v>792</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H88" s="14" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
@@ -7134,16 +7138,16 @@
         <v>792</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>249</v>
+        <v>801</v>
       </c>
       <c r="G89" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -7161,17 +7165,15 @@
         <v>792</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="H90" s="14" t="s">
-        <v>846</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="H90" s="14"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -7188,10 +7190,10 @@
         <v>792</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>834</v>
+        <v>797</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>809</v>
@@ -7212,14 +7214,14 @@
       <c r="D92" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="E92" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>806</v>
+      <c r="E92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>809</v>
+        <v>2</v>
       </c>
       <c r="H92" s="14"/>
       <c r="I92" s="4"/>
@@ -7241,7 +7243,7 @@
         <v>19</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>2</v>
@@ -7262,11 +7264,11 @@
       <c r="D94" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="E94" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>74</v>
+      <c r="E94" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>798</v>
       </c>
       <c r="G94" s="14" t="s">
         <v>2</v>
@@ -7288,10 +7290,10 @@
         <v>792</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G95" s="14" t="s">
         <v>2</v>
@@ -7316,12 +7318,14 @@
         <v>799</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H96" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>845</v>
+      </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -7341,14 +7345,12 @@
         <v>799</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>801</v>
+        <v>600</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H97" s="14" t="s">
-        <v>847</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="H97" s="14"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -7368,10 +7370,10 @@
         <v>799</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="H98" s="14"/>
       <c r="I98" s="4"/>
@@ -7387,17 +7389,15 @@
         <v>98</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>799</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>800</v>
-      </c>
-      <c r="G99" s="14" t="s">
-        <v>2</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F99" s="14">
+        <v>3</v>
+      </c>
+      <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
@@ -7412,16 +7412,20 @@
         <v>99</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F100" s="14">
-        <v>3</v>
-      </c>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
+        <v>799</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>846</v>
+      </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
@@ -7441,13 +7445,13 @@
         <v>799</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G101" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
@@ -7468,13 +7472,13 @@
         <v>799</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>249</v>
+        <v>515</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>807</v>
+        <v>13</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
@@ -7495,13 +7499,13 @@
         <v>799</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>515</v>
+        <v>601</v>
       </c>
       <c r="G103" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>832</v>
+        <v>808</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -7522,14 +7526,12 @@
         <v>799</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>601</v>
+        <v>803</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" s="14" t="s">
-        <v>808</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" s="14"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -7543,17 +7545,15 @@
         <v>104</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>799</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>803</v>
-      </c>
-      <c r="G105" s="14" t="s">
-        <v>2</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F105" s="14">
+        <v>3</v>
+      </c>
+      <c r="G105" s="14"/>
       <c r="H105" s="14"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -7568,15 +7568,17 @@
         <v>105</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F106" s="14">
-        <v>3</v>
-      </c>
-      <c r="G106" s="14"/>
+        <v>804</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="H106" s="14"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -7594,10 +7596,10 @@
         <v>792</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G107" s="14" t="s">
         <v>2</v>
@@ -7615,20 +7617,22 @@
       <c r="C108" s="4">
         <v>107</v>
       </c>
-      <c r="D108" s="13" t="s">
-        <v>792</v>
-      </c>
-      <c r="E108" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="G108" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H108" s="14"/>
-      <c r="I108" s="4"/>
+      <c r="D108" s="16" t="s">
+        <v>848</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>851</v>
+      </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
@@ -7641,21 +7645,19 @@
         <v>108</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>850</v>
+        <v>793</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>813</v>
+        <v>572</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>781</v>
+        <v>849</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>853</v>
-      </c>
+        <v>850</v>
+      </c>
+      <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
@@ -7664,22 +7666,12 @@
       <c r="O109" s="11"/>
     </row>
     <row r="110" spans="3:15">
-      <c r="C110" s="4">
-        <v>109</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>793</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>851</v>
-      </c>
+      <c r="C110" s="18"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
       <c r="G110" s="4"/>
-      <c r="H110" s="4" t="s">
-        <v>852</v>
-      </c>
+      <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
@@ -7688,24 +7680,9 @@
       <c r="N110" s="12"/>
       <c r="O110" s="11"/>
     </row>
-    <row r="111" spans="3:15">
-      <c r="C111" s="18"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="11"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N111">
+  <conditionalFormatting sqref="N2:N110">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7714,20 +7691,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E111">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E110">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F111">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F110">
       <formula1>OFFSET(INDIRECT($E3),0,0,COUNTA(INDIRECT(E3&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G111">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G110">
       <formula1>INDIRECT(SUBSTITUTE(E3&amp;F3," ",""))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H25" r:id="rId1" display="http://10.146.80.51"/>
-    <hyperlink ref="I51" r:id="rId2" display="http://10.146.80.51/"/>
-    <hyperlink ref="I81" r:id="rId3" display="http://google.com/"/>
+    <hyperlink ref="I50" r:id="rId2" display="http://10.146.80.51/"/>
+    <hyperlink ref="I80" r:id="rId3" display="http://google.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NformTester/NformTester/keywordscripts/TST964_DeleteDevice.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST964_DeleteDevice.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="15480" windowHeight="11640"/>
@@ -4003,7 +4003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4052,6 +4052,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4786,7 +4789,7 @@
   <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5035,7 +5038,7 @@
       <c r="A8" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>

--- a/NformTester/NformTester/keywordscripts/TST964_DeleteDevice.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST964_DeleteDevice.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7493" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7494" uniqueCount="856">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3842,16 +3842,20 @@
     <t>GXT_2</t>
   </si>
   <si>
-    <t>$GXT_5$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"126.4.100.50{TAB}80"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>"126.4.100.80"</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_5$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3878,6 +3882,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3890,6 +3895,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4785,8 +4791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4929,7 +4935,7 @@
         <v>814</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -4974,7 +4980,7 @@
         <v>759</v>
       </c>
       <c r="B6" s="6">
-        <v>41045</v>
+        <v>41445</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -5033,9 +5039,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>854</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -5064,11 +5070,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>763</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -5092,8 +5096,12 @@
       <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>763</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -5119,10 +5127,8 @@
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -5149,7 +5155,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="4">
@@ -5176,7 +5182,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="4">
@@ -5205,7 +5211,7 @@
     </row>
     <row r="14" spans="1:15" ht="15">
       <c r="A14" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="4">
@@ -5228,7 +5234,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="4">
@@ -5257,7 +5263,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="4">
@@ -5285,10 +5291,10 @@
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="10" t="s">
-        <v>770</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
@@ -5316,7 +5322,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
@@ -5343,11 +5349,9 @@
       <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>772</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="10" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
@@ -5375,9 +5379,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="B20" s="10"/>
+        <v>772</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>763</v>
+      </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5404,7 +5410,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="4">
@@ -5432,6 +5438,10 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
@@ -5523,7 +5533,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -5575,7 +5585,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>

--- a/NformTester/NformTester/keywordscripts/TST964_DeleteDevice.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST964_DeleteDevice.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="15480" windowHeight="11640"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7493" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7495" uniqueCount="855">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3744,10 +3744,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"10.130.112.39"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"GXT UPS"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3846,11 +3842,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"126.4.100.50{TAB}80"</t>
+    <t>"10.146.82.10{TAB}30"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"126.4.100.80"</t>
+    <t>"10.146.82.30"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_1$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4786,10 +4786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O110"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4932,7 +4932,7 @@
         <v>814</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -5008,7 +5008,7 @@
         <v>760</v>
       </c>
       <c r="B7" s="3">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -5526,7 +5526,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -5578,7 +5578,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -5716,17 +5716,15 @@
         <v>32</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>804</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>2</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F33" s="14">
+        <v>20</v>
+      </c>
+      <c r="G33" s="14"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -5744,10 +5742,10 @@
         <v>792</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>2</v>
@@ -5768,16 +5766,16 @@
       <c r="D35" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>22</v>
+      <c r="E35" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>806</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="14"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -5797,7 +5795,7 @@
         <v>19</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>2</v>
@@ -5818,11 +5816,11 @@
       <c r="D37" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>825</v>
+      <c r="E37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>2</v>
@@ -5847,10 +5845,10 @@
         <v>797</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>809</v>
+        <v>2</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="4"/>
@@ -5869,10 +5867,10 @@
         <v>792</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>809</v>
@@ -5891,15 +5889,17 @@
         <v>39</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F40" s="14">
-        <v>5</v>
-      </c>
-      <c r="G40" s="14"/>
+        <v>810</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>809</v>
+      </c>
       <c r="H40" s="14"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -5914,17 +5914,15 @@
         <v>40</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>809</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F41" s="14">
+        <v>5</v>
+      </c>
+      <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -5948,11 +5946,9 @@
         <v>573</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>817</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>818</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="H42" s="14"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -5966,16 +5962,20 @@
         <v>42</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F43" s="14">
-        <v>5</v>
-      </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
+        <v>797</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>818</v>
+      </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -5989,17 +5989,15 @@
         <v>43</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>826</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>809</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F44" s="14">
+        <v>5</v>
+      </c>
+      <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -6017,10 +6015,10 @@
         <v>792</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>809</v>
@@ -6039,15 +6037,17 @@
         <v>45</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F46" s="14">
-        <v>2</v>
-      </c>
-      <c r="G46" s="14"/>
+        <v>810</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>809</v>
+      </c>
       <c r="H46" s="14"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -6062,17 +6062,15 @@
         <v>46</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>809</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F47" s="14">
+        <v>2</v>
+      </c>
+      <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -6089,14 +6087,14 @@
       <c r="D48" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>22</v>
+      <c r="E48" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>806</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="4"/>
@@ -6118,7 +6116,7 @@
         <v>19</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>2</v>
@@ -6139,11 +6137,11 @@
       <c r="D50" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="E50" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>798</v>
+      <c r="E50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>2</v>
@@ -6165,10 +6163,10 @@
         <v>792</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>2</v>
@@ -6187,15 +6185,17 @@
         <v>51</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F52" s="14">
-        <v>7</v>
-      </c>
-      <c r="G52" s="14"/>
+        <v>799</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="H52" s="14"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -6210,20 +6210,16 @@
         <v>52</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>799</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>801</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>827</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F53" s="14">
+        <v>7</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -6243,12 +6239,14 @@
         <v>799</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>600</v>
+        <v>801</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="H54" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>854</v>
+      </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -6268,10 +6266,10 @@
         <v>799</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="H55" s="14"/>
       <c r="I55" s="4"/>
@@ -6287,15 +6285,17 @@
         <v>55</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F56" s="14">
-        <v>3</v>
-      </c>
-      <c r="G56" s="14"/>
+        <v>799</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="H56" s="14"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -6310,20 +6310,16 @@
         <v>56</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>799</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>828</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F57" s="14">
+        <v>3</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -6343,13 +6339,13 @@
         <v>799</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -6370,13 +6366,13 @@
         <v>799</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>515</v>
+        <v>249</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>13</v>
+        <v>807</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -6397,13 +6393,13 @@
         <v>799</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>601</v>
+        <v>515</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -6424,12 +6420,14 @@
         <v>799</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>803</v>
+        <v>601</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>808</v>
+      </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -6443,15 +6441,17 @@
         <v>61</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F62" s="14">
-        <v>3</v>
-      </c>
-      <c r="G62" s="14"/>
+        <v>799</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="H62" s="14"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -6466,17 +6466,15 @@
         <v>62</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>804</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>2</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F63" s="14">
+        <v>3</v>
+      </c>
+      <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -6494,10 +6492,10 @@
         <v>792</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G64" s="14" t="s">
         <v>2</v>
@@ -6518,11 +6516,11 @@
       <c r="D65" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>22</v>
+      <c r="E65" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>806</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>2</v>
@@ -6547,7 +6545,7 @@
         <v>19</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>2</v>
@@ -6568,11 +6566,11 @@
       <c r="D67" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="E67" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>825</v>
+      <c r="E67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>2</v>
@@ -6597,10 +6595,10 @@
         <v>797</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>809</v>
+        <v>2</v>
       </c>
       <c r="H68" s="14"/>
       <c r="I68" s="4"/>
@@ -6619,17 +6617,15 @@
         <v>792</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>832</v>
+        <v>797</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>250</v>
+        <v>830</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>833</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="H69" s="14"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -6646,16 +6642,16 @@
         <v>792</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G70" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -6673,16 +6669,16 @@
         <v>792</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>801</v>
+        <v>249</v>
       </c>
       <c r="G71" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -6700,15 +6696,17 @@
         <v>792</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="H72" s="14"/>
+        <v>807</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>834</v>
+      </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -6725,13 +6723,13 @@
         <v>792</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>797</v>
+        <v>831</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="H73" s="14"/>
       <c r="I73" s="4"/>
@@ -6753,10 +6751,10 @@
         <v>797</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>809</v>
+        <v>2</v>
       </c>
       <c r="H74" s="14"/>
       <c r="I74" s="4"/>
@@ -6775,17 +6773,15 @@
         <v>792</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>832</v>
+        <v>797</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>250</v>
+        <v>830</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="H75" s="14" t="s">
-        <v>836</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="H75" s="14"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -6802,16 +6798,16 @@
         <v>792</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -6829,16 +6825,16 @@
         <v>792</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>801</v>
+        <v>249</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -6856,15 +6852,17 @@
         <v>792</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="H78" s="14"/>
+        <v>807</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>837</v>
+      </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -6881,13 +6879,13 @@
         <v>792</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>797</v>
+        <v>831</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="H79" s="14"/>
       <c r="I79" s="4"/>
@@ -6909,10 +6907,10 @@
         <v>797</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>809</v>
+        <v>2</v>
       </c>
       <c r="H80" s="14"/>
       <c r="I80" s="4"/>
@@ -6931,17 +6929,15 @@
         <v>792</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>832</v>
+        <v>797</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>250</v>
+        <v>830</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="H81" s="14" t="s">
-        <v>839</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="H81" s="14"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -6958,16 +6954,16 @@
         <v>792</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G82" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -6985,16 +6981,16 @@
         <v>792</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>801</v>
+        <v>249</v>
       </c>
       <c r="G83" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -7012,15 +7008,17 @@
         <v>792</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="H84" s="14"/>
+        <v>807</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>840</v>
+      </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -7037,13 +7035,13 @@
         <v>792</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>797</v>
+        <v>831</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="H85" s="14"/>
       <c r="I85" s="4"/>
@@ -7065,10 +7063,10 @@
         <v>797</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>809</v>
+        <v>2</v>
       </c>
       <c r="H86" s="14"/>
       <c r="I86" s="4"/>
@@ -7087,17 +7085,15 @@
         <v>792</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>832</v>
+        <v>797</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>250</v>
+        <v>830</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="H87" s="14" t="s">
-        <v>842</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="H87" s="14"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -7114,16 +7110,16 @@
         <v>792</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H88" s="14" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
@@ -7141,16 +7137,16 @@
         <v>792</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>801</v>
+        <v>249</v>
       </c>
       <c r="G89" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -7168,15 +7164,17 @@
         <v>792</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="H90" s="14"/>
+        <v>807</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>843</v>
+      </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -7193,10 +7191,10 @@
         <v>792</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>797</v>
+        <v>831</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>809</v>
@@ -7217,14 +7215,14 @@
       <c r="D92" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>22</v>
+      <c r="E92" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>806</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="H92" s="14"/>
       <c r="I92" s="4"/>
@@ -7246,7 +7244,7 @@
         <v>19</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>2</v>
@@ -7267,11 +7265,11 @@
       <c r="D94" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="E94" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>798</v>
+      <c r="E94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="G94" s="14" t="s">
         <v>2</v>
@@ -7293,10 +7291,10 @@
         <v>792</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G95" s="14" t="s">
         <v>2</v>
@@ -7321,14 +7319,12 @@
         <v>799</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H96" s="14" t="s">
-        <v>845</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" s="14"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -7348,12 +7344,14 @@
         <v>799</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>600</v>
+        <v>801</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="H97" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>844</v>
+      </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -7373,10 +7371,10 @@
         <v>799</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="H98" s="14"/>
       <c r="I98" s="4"/>
@@ -7392,15 +7390,17 @@
         <v>98</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F99" s="14">
-        <v>3</v>
-      </c>
-      <c r="G99" s="14"/>
+        <v>799</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="H99" s="14"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
@@ -7415,20 +7415,16 @@
         <v>99</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>799</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="G100" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="H100" s="14" t="s">
-        <v>846</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F100" s="14">
+        <v>3</v>
+      </c>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
@@ -7448,13 +7444,13 @@
         <v>799</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G101" s="14" t="s">
         <v>807</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
@@ -7475,13 +7471,13 @@
         <v>799</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>515</v>
+        <v>249</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>13</v>
+        <v>807</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
@@ -7502,13 +7498,13 @@
         <v>799</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>601</v>
+        <v>515</v>
       </c>
       <c r="G103" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -7529,12 +7525,14 @@
         <v>799</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>803</v>
+        <v>601</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H104" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>808</v>
+      </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -7548,15 +7546,17 @@
         <v>104</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="F105" s="14">
-        <v>3</v>
-      </c>
-      <c r="G105" s="14"/>
+        <v>799</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="H105" s="14"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -7571,17 +7571,15 @@
         <v>105</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>804</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>2</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="F106" s="14">
+        <v>3</v>
+      </c>
+      <c r="G106" s="14"/>
       <c r="H106" s="14"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -7599,10 +7597,10 @@
         <v>792</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G107" s="14" t="s">
         <v>2</v>
@@ -7620,22 +7618,20 @@
       <c r="C108" s="4">
         <v>107</v>
       </c>
-      <c r="D108" s="16" t="s">
-        <v>848</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>851</v>
-      </c>
+      <c r="D108" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H108" s="14"/>
+      <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
@@ -7648,19 +7644,21 @@
         <v>108</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>793</v>
+        <v>847</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>572</v>
+        <v>813</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>849</v>
+        <v>781</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="I109" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
@@ -7669,12 +7667,22 @@
       <c r="O109" s="11"/>
     </row>
     <row r="110" spans="3:15">
-      <c r="C110" s="18"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
+      <c r="C110" s="4">
+        <v>109</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>848</v>
+      </c>
       <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
+      <c r="H110" s="4" t="s">
+        <v>849</v>
+      </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
@@ -7683,9 +7691,24 @@
       <c r="N110" s="12"/>
       <c r="O110" s="11"/>
     </row>
+    <row r="111" spans="3:15">
+      <c r="C111" s="18"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N110">
+  <conditionalFormatting sqref="N2:N111">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7694,20 +7717,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E110">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E111">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F110">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F111">
       <formula1>OFFSET(INDIRECT($E3),0,0,COUNTA(INDIRECT(E3&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G110">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G111">
       <formula1>INDIRECT(SUBSTITUTE(E3&amp;F3," ",""))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H25" r:id="rId1" display="http://10.146.80.51"/>
-    <hyperlink ref="I50" r:id="rId2" display="http://10.146.80.51/"/>
-    <hyperlink ref="I80" r:id="rId3" display="http://google.com/"/>
+    <hyperlink ref="I51" r:id="rId2" display="http://10.146.80.51/"/>
+    <hyperlink ref="I81" r:id="rId3" display="http://google.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
